--- a/results_exact/13_transbordo_porto.xlsx
+++ b/results_exact/13_transbordo_porto.xlsx
@@ -444,39 +444,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>132911.5188525997</v>
       </c>
       <c r="D2" t="n">
-        <v>396880.9074248924</v>
+        <v>45493.13314740034</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,11 +485,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178404.652</v>
+        <v>465403.44</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1092647.5371474</v>
       </c>
     </row>
     <row r="4">
@@ -511,48 +511,48 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>192867.5531473997</v>
       </c>
       <c r="D4" t="n">
-        <v>729132.056</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>536264.5028526003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147377.756</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1810223.323424893</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
-        <v>408199.7405751063</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2831204.26</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14819634.35206487</v>
       </c>
       <c r="C2" t="n">
-        <v>67711851.61576091</v>
+        <v>3823697.841038998</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30437617.67772001</v>
+        <v>51664435.8744</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>119841581.8743268</v>
       </c>
     </row>
     <row r="4">
@@ -670,27 +670,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>28415176.6052064</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>63273848.69157831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25144118.95116</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>211669413.2080728</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
-        <v>69642957.7395189</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>265623583.6732</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3685242999.686786</v>
       </c>
       <c r="C2" t="n">
-        <v>10764918356.8113</v>
+        <v>848792681.0109365</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4946632922.190081</v>
+        <v>12827612504.484</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29636753268.07864</v>
       </c>
     </row>
     <row r="4">
@@ -809,27 +809,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7629419951.24527</v>
       </c>
       <c r="C4" t="n">
-        <v>21777278769.3744</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16016826412.49976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5530674524.963199</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>39618095100.64636</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
-        <v>17198426585.8118</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17410105087.6872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61963028633.295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1329733769.006292</v>
+        <v>1191716706.325243</v>
       </c>
       <c r="B2" t="n">
-        <v>167748969721213.7</v>
+        <v>152138086408608.3</v>
       </c>
     </row>
   </sheetData>
